--- a/ssiex2t3s4_play/MAF_7.xlsx
+++ b/ssiex2t3s4_play/MAF_7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jibik\source\repos\ex3-4\ssiex2t3s4_play\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5A46FD4-A811-4897-93D3-6C8EA242FCFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E032A2DE-A3B6-4C3A-A75A-1AB461F8100B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
@@ -692,6 +692,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>平滑化前</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3509,13 +3512,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-62C0-4CCD-983B-90061B0F56F0}"/>
+              <c16:uniqueId val="{00000000-D4B1-4BC9-B0C0-3DA52C3DF7CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>平滑化後</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -6330,7 +6336,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-62C0-4CCD-983B-90061B0F56F0}"/>
+              <c16:uniqueId val="{00000001-D4B1-4BC9-B0C0-3DA52C3DF7CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6342,13 +6348,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1113336847"/>
-        <c:axId val="1230869727"/>
+        <c:axId val="1317610319"/>
+        <c:axId val="1318754975"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1113336847"/>
+        <c:axId val="1317610319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6366,6 +6374,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>時間 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6403,12 +6471,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1230869727"/>
+        <c:crossAx val="1318754975"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1230869727"/>
+        <c:axId val="1318754975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6428,6 +6496,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>手の並進加速度の </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>z </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>成分</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6465,7 +6596,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113336847"/>
+        <c:crossAx val="1317610319"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7112,23 +7243,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>670612</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>194812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3D9F83-91D3-4D3A-9176-BC8DFB82DF4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1530F6-9960-4501-877B-3A7E0702DE06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7449,7 +7580,7 @@
   <dimension ref="A1:G464"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="2" sqref="A1:A1048576 C1:C1048576 F1:F1048576"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
